--- a/data/serviceLevelAgreement.xlsx
+++ b/data/serviceLevelAgreement.xlsx
@@ -1,57 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13074865-B6CC-4A10-9BB7-EA290885D5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6528" yWindow="3468" windowWidth="4608" windowHeight="2580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6528" yWindow="3468" windowWidth="4608" windowHeight="2580" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId18"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId19"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
-    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
-    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
-    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
-    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="Sheet8" state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId12"/>
+    <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId13"/>
+    <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId14"/>
+    <sheet sheetId="12" name="Sheet12" state="visible" r:id="rId15"/>
+    <sheet sheetId="13" name="Sheet13" state="visible" r:id="rId16"/>
+    <sheet sheetId="14" name="Sheet14" state="visible" r:id="rId17"/>
+    <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId18"/>
+    <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId19"/>
+    <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId20"/>
+    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId21"/>
+    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId22"/>
+    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId23"/>
+    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId24"/>
+    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId25"/>
+    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId26"/>
+    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId27"/>
+    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId28"/>
+    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId29"/>
+    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="43">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -92,7 +81,13 @@
     <t>["14,594","11,696","3,486","1,560","1,552","0"]</t>
   </si>
   <si>
+    <t>["6,272","3,949","959","631","556"]</t>
+  </si>
+  <si>
     <t>["TOTAL CALLS RECEIVED","32,888"]</t>
+  </si>
+  <si>
+    <t>["TOTAL CALLS RECEIVED","12,367"]</t>
   </si>
   <si>
     <t>RBS GROUP RETIREMENT SAVINGS PLAN (GIB)</t>
@@ -179,28 +174,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,6 +338,9 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -352,24 +350,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,6 +375,13 @@
       <font>
         <b/>
         <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <color rgb="FFC00000"/>
       </font>
     </dxf>
@@ -387,7 +389,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -401,7 +403,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -415,7 +417,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -429,7 +431,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -443,7 +445,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -457,7 +459,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -471,7 +473,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -485,7 +487,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -499,7 +501,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -513,7 +515,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -527,7 +529,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -541,7 +543,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -555,7 +557,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -569,7 +571,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -583,7 +585,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -597,7 +599,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -611,7 +613,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -625,7 +627,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -639,7 +641,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -653,7 +655,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -667,7 +669,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -681,7 +683,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -695,7 +697,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -709,7 +711,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -723,7 +725,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -737,7 +739,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -745,13 +747,6 @@
         <b/>
         <i/>
         <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
   </dxfs>
@@ -1029,2921 +1024,2921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="31.20703125" customWidth="1"/>
     <col min="4" max="4" width="19.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="22.2" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="42.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="37.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="26.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="56.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="28.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="41.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="25.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="29.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="24.7890625" customWidth="1"/>
+    <col min="2" max="3" width="27.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
+        <f>IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
+        <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="27.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.7890625" customWidth="1"/>
-    <col min="2" max="3" width="27.9453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
-        <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="2" width="29.3671875" customWidth="1"/>
     <col min="3" max="3" width="70.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>3590</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>3590</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.04</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.04</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="33.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="19.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="29.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="23.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="33.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="22.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="2" width="52.3125" customWidth="1"/>
     <col min="3" max="3" width="40.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="52.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="14" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="2" width="32.3125" customWidth="1"/>
     <col min="3" max="3" width="39.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" ht="16.8" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>8873</v>
       </c>
-      <c r="C3" s="2">
-        <v>8873</v>
-      </c>
-      <c r="D3" s="8" t="str">
+      <c r="C3" s="3">
+        <v>12367</v>
+      </c>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.02</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D4" s="9" t="str">
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="str">
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="37.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="2" width="14.26171875" customWidth="1"/>
     <col min="3" max="3" width="22.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="35.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1884</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1884</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.03</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>0.03</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="32.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="33.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.7890625" customWidth="1"/>
     <col min="2" max="3" width="14.7890625" customWidth="1"/>
     <col min="4" max="4" width="5.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9" t="str">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="9" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>